--- a/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\elec\BCRbQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-hongkong\InputData\elec\BCRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{11AEF240-88A0-46E7-B6CC-FCF1F37AE5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{60931297-3AE4-4785-BF26-5A96374322C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
     <sheet name="CLP Assets" sheetId="38" r:id="rId2"/>
     <sheet name="HKE Asset" sheetId="39" r:id="rId3"/>
     <sheet name="Natural gas&amp;Petroleum&amp;Coal" sheetId="34" r:id="rId4"/>
-    <sheet name="BCR" sheetId="2" r:id="rId5"/>
+    <sheet name="BCRbQ" sheetId="2" r:id="rId5"/>
     <sheet name="Wind" sheetId="29" r:id="rId6"/>
     <sheet name="Hydro" sheetId="28" r:id="rId7"/>
     <sheet name="Nuclear" sheetId="25" r:id="rId8"/>
@@ -26,7 +25,7 @@
     <sheet name="Solar thermal " sheetId="35" state="hidden" r:id="rId11"/>
     <sheet name="Solar pv" sheetId="30" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>微软用户</author>
   </authors>
   <commentList>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="G33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="G58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="G84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G109" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,12 +233,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>微软用户</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="D26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,12 +343,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>微软用户</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -381,9 +380,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="316">
-  <si>
-    <t>BCR BAU Capacity Retirements</t>
-  </si>
   <si>
     <t>Sources:</t>
   </si>
@@ -1655,11 +1651,14 @@
   <si>
     <t>     CLP Power Hong Kong Limited (CLP) is also building a new gas-fired generating unit at its Black Point Power Station for expected commencement of operation in 2023. At its Castle Peak Power Station, two existing coal-fired generating units will be decommissioned in succession. CLP has completed upgrading three gas-fired generating units and will upgrade the remaining five units by 2023, which will further reduce its NOx emissions. Furthermore, CLP also forecasts a reduction in electricity demand for 2024 and 2025.</t>
   </si>
+  <si>
+    <t>BCRbQ BAU Capacity Retirements before Quantization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -2188,22 +2187,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Body: normal cell" xfId="6"/>
+    <cellStyle name="Body: normal cell 2" xfId="12"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="14"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Footnotes: top row 2" xfId="10"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Header: bottom row 2" xfId="13"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Parent row 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Table title 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Parent row" xfId="5"/>
+    <cellStyle name="Parent row 2" xfId="11"/>
+    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Table title 2" xfId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2998,58 +2997,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.86328125" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="29" customFormat="1">
       <c r="B4" s="29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:8" s="29" customFormat="1">
       <c r="B5" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="33"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:8" s="29" customFormat="1">
       <c r="B7" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="34"/>
       <c r="H7" s="31"/>
@@ -3062,61 +3061,61 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="32"/>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="32"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3127,41 +3126,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="6"/>
-    <col min="5" max="5" width="16.42578125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="3" max="3" width="17.265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875" style="6"/>
+    <col min="5" max="5" width="16.3984375" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.73046875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F1" s="19">
         <v>30</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3172,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3187,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3202,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3225,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3236,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3247,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3324,7 +3323,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+  <sortState ref="A2:C12">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -3334,40 +3333,40 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.3984375" customWidth="1"/>
+    <col min="2" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
         <v>260</v>
       </c>
-      <c r="B1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" t="s">
-        <v>262</v>
-      </c>
       <c r="H1" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I1" s="19">
         <v>30</v>
@@ -3375,74 +3374,74 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4" s="23">
         <v>2012</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="22">
         <v>2019</v>
@@ -3450,50 +3449,50 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E10" s="22">
         <v>2019</v>
@@ -3501,26 +3500,26 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="22">
         <v>2019</v>
@@ -3528,26 +3527,26 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E14" s="22">
         <v>2019</v>
@@ -3555,14 +3554,14 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" s="23">
         <v>2016</v>
@@ -3570,50 +3569,50 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" s="22">
         <v>2019</v>
@@ -3621,38 +3620,38 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E22" s="22">
         <v>2019</v>
@@ -3660,26 +3659,26 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E24" s="22">
         <v>2019</v>
@@ -3692,28 +3691,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" customWidth="1"/>
+    <col min="7" max="7" width="7.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
         <v>217</v>
       </c>
-      <c r="B1" t="s">
-        <v>218</v>
-      </c>
       <c r="F1" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G1" s="19">
         <v>20</v>
@@ -3919,17 +3918,17 @@
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3939,82 +3938,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" style="6" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="46.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875" style="6"/>
     <col min="5" max="5" width="19" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="6"/>
+    <col min="6" max="6" width="13.73046875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.73046875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21">
       <c r="A1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="18">
+      <c r="A2" s="66" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="18.75">
-      <c r="A2" s="66" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.45" customHeight="1">
       <c r="B4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="F4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="G4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="44">
         <v>4108</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="44">
         <f>4*350</f>
@@ -4022,15 +4021,15 @@
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="44">
         <f>4*677</f>
@@ -4038,85 +4037,85 @@
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.45" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="46">
         <f>8*312.5</f>
         <v>2500</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="44">
         <v>300</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6">
         <v>1992</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="44">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6">
         <v>2019</v>
       </c>
       <c r="F10" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="44">
         <f>2*984</f>
         <v>1968</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="6">
         <v>1994</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="44">
         <v>1380</v>
@@ -4126,24 +4125,24 @@
     </row>
     <row r="13" spans="1:16" s="48" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="49">
         <v>2400</v>
       </c>
       <c r="D13" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="F13" s="50" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="53">
         <f>SUM(C5:C10)</f>
@@ -4153,54 +4152,54 @@
     </row>
     <row r="15" spans="1:16" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="68">
         <v>550</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="51">
         <v>2020</v>
       </c>
       <c r="F15" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="68">
         <v>550</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="G16" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="8">
         <v>7543</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4210,16 +4209,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="25"/>
       <c r="B20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="D20" s="25">
         <v>2018</v>
@@ -4230,10 +4229,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D21" s="6">
         <v>34218</v>
@@ -4244,10 +4243,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="6">
         <v>9270</v>
@@ -4258,107 +4257,107 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="47">
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="47">
         <v>0.7</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="I25" s="56" t="s">
         <v>76</v>
-      </c>
-      <c r="I25" s="56" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="47">
         <v>0.4</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="47"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="47"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="47"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="47"/>
     </row>
     <row r="32" spans="1:9" ht="21">
       <c r="A32" s="69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="15.75">
       <c r="B33" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H33" s="58"/>
       <c r="I33" s="58"/>
       <c r="K33" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="59">
         <v>2018</v>
@@ -4379,18 +4378,18 @@
         <v>2013</v>
       </c>
       <c r="K34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U34" s="25" t="s">
         <v>90</v>
-      </c>
-      <c r="U34" s="25" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D35" s="6">
         <v>9304</v>
@@ -4411,15 +4410,15 @@
         <v>5675</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D36" s="6">
         <v>72963</v>
@@ -4440,15 +4439,15 @@
         <v>45141</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="61">
         <v>163</v>
@@ -4469,15 +4468,15 @@
         <v>146</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:21">
       <c r="B38" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D38" s="6">
         <v>45.8</v>
@@ -4500,10 +4499,10 @@
     </row>
     <row r="39" spans="2:21">
       <c r="B39" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="59">
         <v>2018</v>
@@ -4526,10 +4525,10 @@
     </row>
     <row r="40" spans="2:21">
       <c r="B40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D40" s="62">
         <v>3776</v>
@@ -4552,10 +4551,10 @@
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" s="62">
         <v>3759</v>
@@ -4576,15 +4575,15 @@
         <v>2447</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:21">
       <c r="B42" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="6">
         <v>0.08</v>
@@ -4605,15 +4604,15 @@
         <v>0.08</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:21">
       <c r="B43" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="6">
         <v>1.4</v>
@@ -4634,15 +4633,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:21">
       <c r="B44" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="6">
         <v>0.06</v>
@@ -4663,15 +4662,15 @@
         <v>0.04</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:21">
       <c r="B45" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="6">
         <v>0.06</v>
@@ -4692,15 +4691,15 @@
         <v>0.04</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="2:21" s="25" customFormat="1">
       <c r="B46" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" s="59">
         <v>2018</v>
@@ -4721,15 +4720,15 @@
         <v>2013</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="2:21" s="25" customFormat="1">
       <c r="B47" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="D47" s="6">
         <v>943.9</v>
@@ -4750,15 +4749,15 @@
         <v>668.3</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="2:21" s="25" customFormat="1">
       <c r="B48" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="6">
         <v>943.5</v>
@@ -4779,18 +4778,18 @@
         <v>668.1</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:11" s="25" customFormat="1">
       <c r="B49" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -4798,15 +4797,15 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="K49" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" s="6">
         <v>0.4</v>
@@ -4827,15 +4826,15 @@
         <v>0.3</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" s="61">
         <v>943.6</v>
@@ -4856,15 +4855,15 @@
         <v>668.2</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" s="61">
         <v>943.5</v>
@@ -4887,10 +4886,10 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" s="61">
         <v>0.1</v>
@@ -4913,57 +4912,57 @@
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="15.75">
       <c r="B58" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="K58" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="K58" s="25" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="59">
         <v>2018</v>
@@ -4984,15 +4983,15 @@
         <v>2013</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D60" s="62">
         <v>13727</v>
@@ -5013,12 +5012,12 @@
         <v>19409</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" s="62">
         <v>150310</v>
@@ -5039,15 +5038,15 @@
         <v>205198</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="62">
         <v>2530</v>
@@ -5068,15 +5067,15 @@
         <v>1340</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D63" s="6">
         <v>6</v>
@@ -5099,10 +5098,10 @@
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D64" s="6">
         <v>32.299999999999997</v>
@@ -5125,10 +5124,10 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="59">
         <v>2018</v>
@@ -5151,10 +5150,10 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D66" s="62">
         <v>13719</v>
@@ -5177,10 +5176,10 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" s="62">
         <v>13630</v>
@@ -5203,10 +5202,10 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D68" s="6">
         <v>4.7</v>
@@ -5229,10 +5228,10 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D69" s="6">
         <v>14.4</v>
@@ -5255,10 +5254,10 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D70" s="6">
         <v>0.5</v>
@@ -5281,10 +5280,10 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="6">
         <v>0.4</v>
@@ -5307,10 +5306,10 @@
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="59">
         <v>2018</v>
@@ -5333,10 +5332,10 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="D73" s="63">
         <v>2827.2</v>
@@ -5359,10 +5358,10 @@
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D74" s="63">
         <v>2822</v>
@@ -5385,30 +5384,30 @@
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="G75" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D76" s="6">
         <v>5.2</v>
@@ -5431,10 +5430,10 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D77" s="63">
         <v>2823.5</v>
@@ -5457,10 +5456,10 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D78" s="63">
         <v>2822</v>
@@ -5483,10 +5482,10 @@
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D79" s="6">
         <v>1.5</v>
@@ -5509,84 +5508,84 @@
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="15.75">
       <c r="B84" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G84" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="58" t="s">
-        <v>87</v>
-      </c>
       <c r="K84" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D85" s="59">
         <v>2018</v>
@@ -5609,10 +5608,10 @@
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D86" s="6">
         <v>1.1000000000000001</v>
@@ -5633,15 +5632,15 @@
         <v>0.1</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D87" s="6">
         <v>20</v>
@@ -5662,15 +5661,15 @@
         <v>5</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D88" s="6">
         <v>20.399999999999999</v>
@@ -5691,15 +5690,15 @@
         <v>10.1</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D89" s="59">
         <v>2018</v>
@@ -5720,15 +5719,15 @@
         <v>2013</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D90" s="6">
         <v>1.5</v>
@@ -5751,10 +5750,10 @@
     </row>
     <row r="91" spans="2:11">
       <c r="B91" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" s="6">
         <v>1.4</v>
@@ -5777,10 +5776,10 @@
     </row>
     <row r="92" spans="2:11">
       <c r="B92" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D92" s="6">
         <v>7.9999999999999996E-6</v>
@@ -5803,10 +5802,10 @@
     </row>
     <row r="93" spans="2:11">
       <c r="B93" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D93" s="6">
         <v>2.0999999999999999E-3</v>
@@ -5829,10 +5828,10 @@
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94" s="6">
         <v>4.0000000000000003E-5</v>
@@ -5855,10 +5854,10 @@
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" s="6">
         <v>4.0000000000000003E-5</v>
@@ -5881,10 +5880,10 @@
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D96" s="59">
         <v>2018</v>
@@ -5907,10 +5906,10 @@
     </row>
     <row r="97" spans="1:11">
       <c r="B97" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="D97" s="6">
         <v>5.9999999999999995E-4</v>
@@ -5933,30 +5932,30 @@
     </row>
     <row r="98" spans="1:11">
       <c r="B98" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="B99" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D99" s="6">
         <v>0</v>
@@ -5968,21 +5967,21 @@
         <v>1E-4</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D100" s="6">
         <v>5.9999999999999995E-4</v>
@@ -6005,10 +6004,10 @@
     </row>
     <row r="101" spans="1:11">
       <c r="B101" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D101" s="6">
         <v>0</v>
@@ -6031,10 +6030,10 @@
     </row>
     <row r="102" spans="1:11">
       <c r="B102" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D102" s="6">
         <v>0</v>
@@ -6057,62 +6056,62 @@
     </row>
     <row r="103" spans="1:11">
       <c r="B103" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="B104" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="B105" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D105" s="6">
         <v>0</v>
@@ -6135,29 +6134,29 @@
     </row>
     <row r="108" spans="1:11" ht="21">
       <c r="A108" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75">
       <c r="B109" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D109" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G109" s="58" t="s">
-        <v>87</v>
-      </c>
       <c r="K109" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="B110" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D110" s="59">
         <v>2018</v>
@@ -6178,15 +6177,15 @@
         <v>2013</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="B111" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D111" s="6">
         <v>1262</v>
@@ -6207,15 +6206,15 @@
         <v>1351</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="B112" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D112" s="64">
         <v>3.5999999999999997E-2</v>
@@ -6236,15 +6235,15 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="2:13">
       <c r="B113" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D113" s="6">
         <v>17</v>
@@ -6265,15 +6264,15 @@
         <v>20</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D114" s="6">
         <v>1032</v>
@@ -6296,10 +6295,10 @@
     </row>
     <row r="115" spans="2:13">
       <c r="B115" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D115" s="6">
         <v>262</v>
@@ -6322,10 +6321,10 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
@@ -6334,15 +6333,15 @@
       <c r="H116" s="60"/>
       <c r="I116" s="60"/>
       <c r="M116" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="2:13">
       <c r="B117" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D117" s="6">
         <v>42</v>
@@ -6365,10 +6364,10 @@
     </row>
     <row r="118" spans="2:13">
       <c r="B118" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D118" s="6">
         <v>3</v>
@@ -6391,10 +6390,10 @@
     </row>
     <row r="119" spans="2:13">
       <c r="B119" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D119" s="6">
         <v>37</v>
@@ -6417,10 +6416,10 @@
     </row>
     <row r="120" spans="2:13">
       <c r="B120" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
@@ -6431,10 +6430,10 @@
     </row>
     <row r="121" spans="2:13">
       <c r="B121" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="D121" s="6">
         <v>0.05</v>
@@ -6457,30 +6456,30 @@
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="2:13">
       <c r="B123" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D123" s="6">
         <v>0</v>
@@ -6503,10 +6502,10 @@
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D124" s="6">
         <v>0.05</v>
@@ -6529,10 +6528,10 @@
     </row>
     <row r="125" spans="2:13">
       <c r="B125" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D125" s="6">
         <v>1E-3</v>
@@ -6555,10 +6554,10 @@
     </row>
     <row r="126" spans="2:13">
       <c r="B126" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D126" s="6">
         <v>1E-3</v>
@@ -6581,59 +6580,59 @@
     </row>
     <row r="127" spans="2:13">
       <c r="B127" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="2:13">
       <c r="B128" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="2:4">
       <c r="B129" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="2:4">
       <c r="B132" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="2:10">
       <c r="B148" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J148" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="J148" s="25" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I25" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -6642,74 +6641,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="28.265625" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="7" max="7" width="49.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75">
+    <row r="1" spans="1:21" ht="18">
       <c r="A1" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>167</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="25"/>
       <c r="M2" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O2">
         <v>2014</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>176</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="25">
         <f>SUM(D6:D10)</f>
@@ -6720,7 +6719,7 @@
     </row>
     <row r="6" spans="1:21" ht="26.45" customHeight="1">
       <c r="C6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6">
         <f>250*3</f>
@@ -6730,12 +6729,12 @@
         <v>1984</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="C7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7">
         <f>350*3</f>
@@ -6745,12 +6744,12 @@
         <v>1991</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="C8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8">
         <f>350</f>
@@ -6763,7 +6762,7 @@
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="C9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9">
         <f>350</f>
@@ -6776,7 +6775,7 @@
     </row>
     <row r="10" spans="1:21" ht="29.45" customHeight="1">
       <c r="C10" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10">
         <v>555</v>
@@ -6785,12 +6784,12 @@
         <v>1991</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="B11" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="25">
         <f>SUM(D12:D13)</f>
@@ -6801,7 +6800,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="C12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12">
         <v>335</v>
@@ -6810,12 +6809,12 @@
         <v>2006</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="C13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13">
         <v>345</v>
@@ -6824,12 +6823,12 @@
         <v>2002</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="B14" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="25">
         <f>SUM(D15:D17)</f>
@@ -6838,7 +6837,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="C15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15">
         <v>0.55000000000000004</v>
@@ -6847,12 +6846,12 @@
         <v>2006</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="C16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16">
         <v>0.45</v>
@@ -6861,12 +6860,12 @@
         <v>2013</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="C17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17">
         <v>0.8</v>
@@ -6875,15 +6874,15 @@
         <v>2006.2</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="B18" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
         <v>196</v>
-      </c>
-      <c r="C18" t="s">
-        <v>197</v>
       </c>
       <c r="D18">
         <v>3737</v>
@@ -6891,84 +6890,84 @@
     </row>
     <row r="19" spans="1:13">
       <c r="C19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="25">
         <v>3487</v>
       </c>
       <c r="G19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="C20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20">
         <f>D18-D19</f>
         <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="B21" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="C22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="40">
         <v>0.34</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="C23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23">
         <f>(D11+D10)/D19</f>
         <v>0.35417264123888731</v>
       </c>
       <c r="G23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="F24" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="G24" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>177</v>
-      </c>
       <c r="M24" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="C25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25">
         <v>350</v>
@@ -6977,15 +6976,15 @@
         <v>2020</v>
       </c>
       <c r="G25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="C26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26">
         <v>350</v>
@@ -6994,35 +6993,35 @@
         <v>2022</v>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="E27" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="G27" s="25" t="s">
         <v>176</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="C28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28">
         <v>350</v>
@@ -7031,20 +7030,20 @@
         <v>2023</v>
       </c>
       <c r="G28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M28" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -7057,28 +7056,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" customWidth="1"/>
+    <col min="10" max="10" width="6.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>217</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>218</v>
       </c>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
@@ -7086,41 +7085,41 @@
       <c r="F1" s="77"/>
       <c r="G1" s="74"/>
       <c r="I1" s="76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J1" s="76"/>
       <c r="L1" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="75"/>
       <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
         <v>220</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>221</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>222</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>223</v>
       </c>
-      <c r="F2" t="s">
-        <v>224</v>
-      </c>
       <c r="H2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J2" s="19">
         <v>40</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -7133,7 +7132,7 @@
         <v>2018</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J3" s="19">
         <v>40</v>
@@ -7151,7 +7150,7 @@
         <v>2019</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J4" s="19">
         <v>40</v>
@@ -7185,13 +7184,13 @@
         <v>2021</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J6" s="42">
         <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7208,13 +7207,13 @@
         <v>2022</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J7" s="42">
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -7266,7 +7265,7 @@
         <v>2025</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7284,7 +7283,7 @@
         <v>2026</v>
       </c>
       <c r="L11" s="73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7318,7 +7317,7 @@
         <v>2028</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7825,7 +7824,7 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L10" r:id="rId1" xr:uid="{CFDE6AFC-D098-4296-BBC6-EC0627D41F02}"/>
+    <hyperlink ref="L10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7834,26 +7833,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" style="14" customWidth="1"/>
     <col min="2" max="36" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.7109375" style="14"/>
+    <col min="37" max="16384" width="8.73046875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="4">
         <v>2016</v>
@@ -7963,7 +7962,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" s="70">
         <f>IFERROR(LOOKUP(B1-'Natural gas&amp;Petroleum&amp;Coal'!$J$7,'Natural gas&amp;Petroleum&amp;Coal'!$A$1:$A$45,'Natural gas&amp;Petroleum&amp;Coal'!$E$1:$E$45),'Natural gas&amp;Petroleum&amp;Coal'!$E$1)+IFERROR(LOOKUP(B1-'Natural gas&amp;Petroleum&amp;Coal'!$J$6,'Natural gas&amp;Petroleum&amp;Coal'!$A$1:$A$45,'Natural gas&amp;Petroleum&amp;Coal'!$F$1:$F$45),'Natural gas&amp;Petroleum&amp;Coal'!$F$1)</f>
@@ -8102,7 +8101,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -8228,152 +8227,152 @@
     </row>
     <row r="4" spans="1:36" customFormat="1">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!B1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!B1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!C1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!C1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!D1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!D1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!E1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!E1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!F1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!F1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!G1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!G1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!H1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!H1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!I1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!I1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!J1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!J1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!K1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!K1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!L1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!L1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!M1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!M1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!N1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!N1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!O1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!O1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!P1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!P1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!Q1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!Q1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!R1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!R1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!S1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!S1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!T1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!T1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!U1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!U1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!V1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!V1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!W1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!W1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!X1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!X1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!Y1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!Y1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!Z1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!Z1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AA1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AA1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AB1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AB1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AC1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AC1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AD1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AD1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AE1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AE1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AF1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AF1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AG1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AG1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AH1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AH1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AI1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AI1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIF(Nuclear!$G:$G,BCR!AJ1,Nuclear!$C:$C)</f>
+        <f>SUMIF(Nuclear!$G:$G,BCRbQ!AJ1,Nuclear!$C:$C)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="13" customFormat="1">
       <c r="A5" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
@@ -8483,7 +8482,7 @@
     </row>
     <row r="6" spans="1:36" s="13" customFormat="1">
       <c r="A6" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" s="13">
         <f>Wind!B2</f>
@@ -8628,7 +8627,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" s="13">
         <f>LOOKUP(B1-'Solar pv'!$G$1,'Solar pv'!$A:$A,'Solar pv'!$B:$B)</f>
@@ -8773,152 +8772,152 @@
     </row>
     <row r="8" spans="1:36" s="36" customFormat="1">
       <c r="A8" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!B1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!B1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="C8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!C1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!C1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="D8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!D1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!D1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="E8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!E1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!E1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="F8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!F1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!F1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="G8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!G1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!G1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="H8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!H1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!H1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="I8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!I1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!I1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="J8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!J1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!J1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="K8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!K1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!K1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="L8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!L1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!L1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="M8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!M1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!M1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="N8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!N1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!N1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="O8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!O1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!O1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="P8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!P1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!P1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!Q1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!Q1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="R8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!R1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!R1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="S8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!S1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!S1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="T8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!T1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!T1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="U8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!U1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!U1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="V8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!V1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!V1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="W8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!W1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!W1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="X8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!X1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!X1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!Y1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!Y1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!Z1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!Z1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AA1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AA1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AB1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AB1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AC1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AC1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AD1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AD1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AE1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AE1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AF1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AF1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AG8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AG1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AG1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AH1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AH1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AI1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AI1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="36">
-        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCR!AJ1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
+        <f>SUMIF('Solar thermal '!$E$2:$E$24,BCRbQ!AJ1-'Solar thermal '!$I$1,'Solar thermal '!$B$2:$B$24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:36" s="13" customFormat="1">
       <c r="A9" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9" s="13">
         <f>IFERROR(LOOKUP(B1-Biomass!$F$1,Biomass!$A$3:$A$17,Biomass!$C$3:$C$17),0)</f>
@@ -9063,152 +9062,152 @@
     </row>
     <row r="10" spans="1:36" s="36" customFormat="1">
       <c r="A10" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!B1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!B1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="C10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!C1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!C1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="D10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!D1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!D1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="E10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!E1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!E1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="F10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!F1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!F1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="G10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!G1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!G1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="H10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!H1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!H1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="I10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!I1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!I1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="J10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!J1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!J1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="K10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!K1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!K1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="L10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!L1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!L1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="M10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!M1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!M1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="N10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!N1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!N1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="O10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!O1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!O1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="P10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!P1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!P1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!Q1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!Q1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="R10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!R1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!R1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="S10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!S1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!S1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="T10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!T1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!T1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="U10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!U1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!U1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="V10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!V1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!V1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="W10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!W1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!W1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="X10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!X1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!X1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="Y10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!Y1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!Y1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!Z1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!Z1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AA10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AA1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AA1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AB10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AB1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AB1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AC10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AC1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AC1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AD10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AD1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AD1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AE1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AE1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AF1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AF1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AG10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AG1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AG1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AH10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AH1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AH1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AI10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AI1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AI1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="36">
-        <f>SUMIF(Geothermal!$F$2:$F$16,BCR!AJ1,Geothermal!$C$2:$C$16)</f>
+        <f>SUMIF(Geothermal!$F$2:$F$16,BCRbQ!AJ1,Geothermal!$C$2:$C$16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" s="13">
         <f>IFERROR(LOOKUP(B1-'Natural gas&amp;Petroleum&amp;Coal'!$J$3,'Natural gas&amp;Petroleum&amp;Coal'!$A$1:$A$45,'Natural gas&amp;Petroleum&amp;Coal'!$D$1:$D$45),0)</f>
@@ -9352,7 +9351,7 @@
     </row>
     <row r="12" spans="1:36" s="36" customFormat="1">
       <c r="A12" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" s="13">
         <f>IFERROR(LOOKUP(B1-'Natural gas&amp;Petroleum&amp;Coal'!$J$2,'Natural gas&amp;Petroleum&amp;Coal'!$A$1:$A$45,'Natural gas&amp;Petroleum&amp;Coal'!$B$1:$B$45),0)</f>
@@ -9482,7 +9481,7 @@
     </row>
     <row r="13" spans="1:36" s="36" customFormat="1">
       <c r="A13" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" s="36">
         <v>0</v>
@@ -9592,7 +9591,7 @@
     </row>
     <row r="14" spans="1:36" s="36" customFormat="1">
       <c r="A14" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="36">
         <f>Wind!B3</f>
@@ -9743,22 +9742,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -9868,7 +9867,7 @@
     </row>
     <row r="2" spans="1:36" s="15" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V2" s="15">
         <f>'HKE Asset'!D17</f>
@@ -9877,12 +9876,12 @@
     </row>
     <row r="3" spans="1:36" s="15" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="19">
         <v>30</v>
@@ -9890,12 +9889,12 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -9906,38 +9905,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="11" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="2"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="7.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.73046875" style="2"/>
+    <col min="6" max="6" width="20.1328125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.73046875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
       <c r="F1" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G1" s="9">
         <v>30</v>
@@ -10456,7 +10455,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+  <sortState ref="A2:D26">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -10465,54 +10464,54 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="32.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.86328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.86328125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.73046875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>241</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>242</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="71">
         <f>'CLP Assets'!C12</f>
@@ -10525,13 +10524,13 @@
         <v>40</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G2" s="71"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -10548,46 +10547,46 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="16"/>
-    <col min="3" max="3" width="13.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="16"/>
-    <col min="8" max="8" width="16.5703125" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="16"/>
+    <col min="1" max="1" width="11.86328125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" style="16"/>
+    <col min="3" max="3" width="13.1328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="26.86328125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" style="16"/>
+    <col min="8" max="8" width="16.59765625" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="8.73046875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="C1" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>248</v>
-      </c>
       <c r="E1" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G1" s="71"/>
       <c r="H1" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I1" s="9">
         <v>38</v>
@@ -10595,7 +10594,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -10607,10 +10606,10 @@
         <v>1977</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10625,7 +10624,7 @@
         <v>1981</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F3" s="17">
         <f>D3+$I$1</f>
@@ -10644,7 +10643,7 @@
         <v>1982</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" ref="F4:F16" si="0">D4+$I$1</f>
@@ -10663,7 +10662,7 @@
         <v>1985</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" si="0"/>
@@ -10682,7 +10681,7 @@
         <v>1986</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" si="0"/>
@@ -10701,7 +10700,7 @@
         <v>1988</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" si="0"/>
@@ -10720,7 +10719,7 @@
         <v>1989</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" si="0"/>
@@ -10739,7 +10738,7 @@
         <v>1991</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
@@ -10758,7 +10757,7 @@
         <v>1991</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="0"/>
@@ -10767,7 +10766,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" s="16">
         <v>1</v>
@@ -10779,10 +10778,10 @@
         <v>1970</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10797,10 +10796,10 @@
         <v>1978</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10815,7 +10814,7 @@
         <v>1984</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="0"/>
@@ -10824,7 +10823,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="16">
         <v>0</v>
@@ -10833,7 +10832,7 @@
         <v>2009</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" si="0"/>
@@ -10842,7 +10841,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="16">
         <v>0</v>
@@ -10851,7 +10850,7 @@
         <v>2011</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" si="0"/>
@@ -10860,7 +10859,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
@@ -10869,7 +10868,7 @@
         <v>2011</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" si="0"/>
@@ -10887,6 +10886,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11120,40 +11137,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9A45F0-2174-4651-A4AA-21A29A32DA51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E4517D-4D16-42D6-9794-2E3CC859BA7E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11177,9 +11164,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E4517D-4D16-42D6-9794-2E3CC859BA7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9A45F0-2174-4651-A4AA-21A29A32DA51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>